--- a/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.46</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -833,10 +833,10 @@
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.4</v>
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
         <v>1.85</v>
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>2.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1247,13 +1247,13 @@
         <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1274,10 +1274,10 @@
         <v>4.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="T6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1664,13 +1664,13 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.5</v>
@@ -1691,7 +1691,7 @@
         <v>2.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
         <v>1.6</v>
@@ -2081,13 +2081,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.59</v>
       </c>
       <c r="M12" t="n">
         <v>1.44</v>
@@ -2108,10 +2108,10 @@
         <v>2.9</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2359,13 +2359,13 @@
         <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.64</v>
       </c>
       <c r="L14" t="n">
-        <v>9.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="M14" t="n">
         <v>1.4</v>
@@ -2386,10 +2386,10 @@
         <v>3.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.5</v>
+        <v>6.79</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>3.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.47</v>
@@ -996,10 +996,10 @@
         <v>2.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1386,13 +1386,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1525,13 +1525,13 @@
         <v>5.77</v>
       </c>
       <c r="J8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
         <v>1.87</v>
@@ -2220,13 +2220,13 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.49</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.56</v>
       </c>
       <c r="M13" t="n">
         <v>1.4</v>
@@ -2247,10 +2247,10 @@
         <v>3.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2498,13 +2498,13 @@
         <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="L15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M15" t="n">
         <v>1.36</v>
@@ -2525,10 +2525,10 @@
         <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -2637,13 +2637,13 @@
         <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.29</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2664,10 +2664,10 @@
         <v>3.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
         <v>1.75</v>

--- a/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="K2" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.15</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -796,7 +796,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,44 +808,44 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Botoşani</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="N3" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
         <v>7.5</v>
@@ -854,88 +854,88 @@
         <v>1.36</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1.28</v>
       </c>
-      <c r="X3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AI3" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1.53</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,44 +947,44 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botoşani</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
         <v>7.5</v>
@@ -993,82 +993,82 @@
         <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.58</v>
+        <v>0.78</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.53</v>
+        <v>2.37</v>
       </c>
       <c r="K5" t="n">
-        <v>3.16</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1247,13 +1247,13 @@
         <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.46</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>1.33</v>
@@ -1274,10 +1274,10 @@
         <v>4.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.77</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.27</v>
+        <v>5.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N7" t="n">
-        <v>2.75</v>
+        <v>3.27</v>
       </c>
       <c r="O7" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R7" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.18</v>
       </c>
-      <c r="X7" t="n">
-        <v>1.26</v>
-      </c>
       <c r="Y7" t="n">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.82</v>
+        <v>3.11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AF7" t="n">
         <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.64</v>
+        <v>3.24</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.33</v>
+        <v>1.82</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.23</v>
+        <v>1.53</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.03</v>
+        <v>3.35</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.62</v>
+        <v>4.8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN8" t="n">
         <v>2.09</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>1.97</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AA9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.2</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.88</v>
+        <v>2.64</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>MVV</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
         <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R10" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.73</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>1.42</v>
       </c>
-      <c r="Z10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.82</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.46</v>
+        <v>2.92</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.43</v>
+        <v>2.64</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11">
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.63</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
         <v>13</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.42</v>
+        <v>0.82</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.92</v>
+        <v>2.46</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.64</v>
+        <v>2.43</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="M12" t="n">
         <v>1.44</v>
@@ -2220,13 +2220,13 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>4.56</v>
+        <v>4.8</v>
       </c>
       <c r="M13" t="n">
         <v>1.4</v>
@@ -2247,10 +2247,10 @@
         <v>3.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2359,13 +2359,13 @@
         <v>7.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="K14" t="n">
-        <v>4.64</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
-        <v>8.050000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.4</v>
@@ -2386,10 +2386,10 @@
         <v>3.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="T14" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>2.2</v>
@@ -2464,7 +2464,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2480,31 +2480,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>2.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.13</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.77</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="M15" t="n">
         <v>1.36</v>
@@ -2513,97 +2513,97 @@
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S15" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.45</v>
+        <v>1.09</v>
       </c>
       <c r="AA15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC15" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AD15" t="n">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AF15" t="n">
         <v>7.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2619,31 +2619,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H16" t="n">
         <v>2.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.34</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.29</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2652,91 +2652,91 @@
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.09</v>
+        <v>0.45</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17">
@@ -2776,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.79</v>
+        <v>6.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.96</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
